--- a/biology/Botanique/Jujube_(fruit)/Jujube_(fruit).xlsx
+++ b/biology/Botanique/Jujube_(fruit)/Jujube_(fruit).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ziziphus zizyphus, datte chinoise
-Le jujube (nom masculin), datte rouge, datte chinoise[1] ou chichourle[2] (du grec ancien : ζίζυφον / zízuphon ; appelé en chinois : 枣子 ; pinyin : zǎozi ; en berbère : azair, aizair ; en arabe : anneb, zefzouf, zefizef ; en malgache : mokonazy) est un petit fruit produit par le jujubier commun (Ziziphus jujuba, ou Ziziphus zizyphus), arbre de la famille des Rhamnacées. Il est originaire d'Asie centrale et du nord-ouest de l'Himalaya[3], et est cultivé en Chine depuis plus de 4 000 ans.
+Le jujube (nom masculin), datte rouge, datte chinoise ou chichourle (du grec ancien : ζίζυφον / zízuphon ; appelé en chinois : 枣子 ; pinyin : zǎozi ; en berbère : azair, aizair ; en arabe : anneb, zefzouf, zefizef ; en malgache : mokonazy) est un petit fruit produit par le jujubier commun (Ziziphus jujuba, ou Ziziphus zizyphus), arbre de la famille des Rhamnacées. Il est originaire d'Asie centrale et du nord-ouest de l'Himalaya, et est cultivé en Chine depuis plus de 4 000 ans.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’arbre, utilisé comme ornement, peut atteindre une hauteur de 5 à 12 m, avec des feuilles d’un vert brillant, et parfois des épines. Cette plante tropicale supporte des températures hivernales allant jusqu’à −15 °C.
 On trouve cet arbrisseau dans le midi de la France, dans le nord de l'Algérie (principalement dans la région d'Annaba, surnommée en arabe «medinat el unnab », soit « la ville des jujubes »), en Tunisie, au Maroc, au Niger au Tchad, à Madagascar (Mokonazy) et en Turquie (Hunnap ou iğdi).
-Le fruit est une drupe allongée, d'environ 15 à 30 mm de long, qui renferme un noyau dur allongé. Jeune, il est vert et a le goût et la consistance de la pomme. À maturation, la couleur s’assombrit et devient violet-noir, puis le fruit se flétrit pour atteindre la consistance et le goût d’une datte, d’où son surnom de datte chinoise. Sa chair un peu gélatineuse est farineuse, fade, légèrement sucrée[4].
+Le fruit est une drupe allongée, d'environ 15 à 30 mm de long, qui renferme un noyau dur allongé. Jeune, il est vert et a le goût et la consistance de la pomme. À maturation, la couleur s’assombrit et devient violet-noir, puis le fruit se flétrit pour atteindre la consistance et le goût d’une datte, d’où son surnom de datte chinoise. Sa chair un peu gélatineuse est farineuse, fade, légèrement sucrée.
 			Jujube vert.
 			Jujube mûr.
 			Jujubes séchés.
@@ -549,6 +563,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -574,7 +590,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On peut faire de la pâte de jujube avec une décoction du fruit, du sirop de sucre, de l'eau de fleur d'oranger et de l'eau pure.
 Le jujube est employé, en décoction, comme adoucissant.
